--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC91-EQUIPO RADIO DISTAL AV  ACERO #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC91-EQUIPO RADIO DISTAL AV  ACERO #1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2324736F-A8F1-477D-B90D-9AE24FE9D1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="12345" yWindow="225" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="4" r:id="rId1"/>
@@ -22,28 +23,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -68,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -93,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -699,9 +689,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>210126712</t>
-  </si>
-  <si>
     <t>N2306000639</t>
   </si>
   <si>
@@ -724,17 +711,20 @@
   </si>
   <si>
     <t>MANGO ATORNILLADOR AZUL</t>
+  </si>
+  <si>
+    <t>210834851</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -1139,8 +1129,8 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="126">
@@ -1214,28 +1204,28 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1288,7 +1278,7 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1459,7 +1449,7 @@
     <xf numFmtId="20" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1504,9 +1494,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda 3 2" xfId="2"/>
+    <cellStyle name="Moneda 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1866,407 +1856,407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D74"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="81" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="109.81640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="13" customWidth="1"/>
-    <col min="8" max="230" width="11.453125" style="13"/>
-    <col min="231" max="231" width="13.1796875" style="13" customWidth="1"/>
-    <col min="232" max="232" width="15.1796875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="109.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="13" customWidth="1"/>
+    <col min="8" max="230" width="11.42578125" style="13"/>
+    <col min="231" max="231" width="13.140625" style="13" customWidth="1"/>
+    <col min="232" max="232" width="15.140625" style="13" customWidth="1"/>
     <col min="233" max="233" width="42" style="13" customWidth="1"/>
-    <col min="234" max="234" width="11.453125" style="13"/>
-    <col min="235" max="235" width="13.1796875" style="13" customWidth="1"/>
-    <col min="236" max="486" width="11.453125" style="13"/>
-    <col min="487" max="487" width="13.1796875" style="13" customWidth="1"/>
-    <col min="488" max="488" width="15.1796875" style="13" customWidth="1"/>
+    <col min="234" max="234" width="11.42578125" style="13"/>
+    <col min="235" max="235" width="13.140625" style="13" customWidth="1"/>
+    <col min="236" max="486" width="11.42578125" style="13"/>
+    <col min="487" max="487" width="13.140625" style="13" customWidth="1"/>
+    <col min="488" max="488" width="15.140625" style="13" customWidth="1"/>
     <col min="489" max="489" width="42" style="13" customWidth="1"/>
-    <col min="490" max="490" width="11.453125" style="13"/>
-    <col min="491" max="491" width="13.1796875" style="13" customWidth="1"/>
-    <col min="492" max="742" width="11.453125" style="13"/>
-    <col min="743" max="743" width="13.1796875" style="13" customWidth="1"/>
-    <col min="744" max="744" width="15.1796875" style="13" customWidth="1"/>
+    <col min="490" max="490" width="11.42578125" style="13"/>
+    <col min="491" max="491" width="13.140625" style="13" customWidth="1"/>
+    <col min="492" max="742" width="11.42578125" style="13"/>
+    <col min="743" max="743" width="13.140625" style="13" customWidth="1"/>
+    <col min="744" max="744" width="15.140625" style="13" customWidth="1"/>
     <col min="745" max="745" width="42" style="13" customWidth="1"/>
-    <col min="746" max="746" width="11.453125" style="13"/>
-    <col min="747" max="747" width="13.1796875" style="13" customWidth="1"/>
-    <col min="748" max="998" width="11.453125" style="13"/>
-    <col min="999" max="999" width="13.1796875" style="13" customWidth="1"/>
-    <col min="1000" max="1000" width="15.1796875" style="13" customWidth="1"/>
+    <col min="746" max="746" width="11.42578125" style="13"/>
+    <col min="747" max="747" width="13.140625" style="13" customWidth="1"/>
+    <col min="748" max="998" width="11.42578125" style="13"/>
+    <col min="999" max="999" width="13.140625" style="13" customWidth="1"/>
+    <col min="1000" max="1000" width="15.140625" style="13" customWidth="1"/>
     <col min="1001" max="1001" width="42" style="13" customWidth="1"/>
-    <col min="1002" max="1002" width="11.453125" style="13"/>
-    <col min="1003" max="1003" width="13.1796875" style="13" customWidth="1"/>
-    <col min="1004" max="1254" width="11.453125" style="13"/>
-    <col min="1255" max="1255" width="13.1796875" style="13" customWidth="1"/>
-    <col min="1256" max="1256" width="15.1796875" style="13" customWidth="1"/>
+    <col min="1002" max="1002" width="11.42578125" style="13"/>
+    <col min="1003" max="1003" width="13.140625" style="13" customWidth="1"/>
+    <col min="1004" max="1254" width="11.42578125" style="13"/>
+    <col min="1255" max="1255" width="13.140625" style="13" customWidth="1"/>
+    <col min="1256" max="1256" width="15.140625" style="13" customWidth="1"/>
     <col min="1257" max="1257" width="42" style="13" customWidth="1"/>
-    <col min="1258" max="1258" width="11.453125" style="13"/>
-    <col min="1259" max="1259" width="13.1796875" style="13" customWidth="1"/>
-    <col min="1260" max="1510" width="11.453125" style="13"/>
-    <col min="1511" max="1511" width="13.1796875" style="13" customWidth="1"/>
-    <col min="1512" max="1512" width="15.1796875" style="13" customWidth="1"/>
+    <col min="1258" max="1258" width="11.42578125" style="13"/>
+    <col min="1259" max="1259" width="13.140625" style="13" customWidth="1"/>
+    <col min="1260" max="1510" width="11.42578125" style="13"/>
+    <col min="1511" max="1511" width="13.140625" style="13" customWidth="1"/>
+    <col min="1512" max="1512" width="15.140625" style="13" customWidth="1"/>
     <col min="1513" max="1513" width="42" style="13" customWidth="1"/>
-    <col min="1514" max="1514" width="11.453125" style="13"/>
-    <col min="1515" max="1515" width="13.1796875" style="13" customWidth="1"/>
-    <col min="1516" max="1766" width="11.453125" style="13"/>
-    <col min="1767" max="1767" width="13.1796875" style="13" customWidth="1"/>
-    <col min="1768" max="1768" width="15.1796875" style="13" customWidth="1"/>
+    <col min="1514" max="1514" width="11.42578125" style="13"/>
+    <col min="1515" max="1515" width="13.140625" style="13" customWidth="1"/>
+    <col min="1516" max="1766" width="11.42578125" style="13"/>
+    <col min="1767" max="1767" width="13.140625" style="13" customWidth="1"/>
+    <col min="1768" max="1768" width="15.140625" style="13" customWidth="1"/>
     <col min="1769" max="1769" width="42" style="13" customWidth="1"/>
-    <col min="1770" max="1770" width="11.453125" style="13"/>
-    <col min="1771" max="1771" width="13.1796875" style="13" customWidth="1"/>
-    <col min="1772" max="2022" width="11.453125" style="13"/>
-    <col min="2023" max="2023" width="13.1796875" style="13" customWidth="1"/>
-    <col min="2024" max="2024" width="15.1796875" style="13" customWidth="1"/>
+    <col min="1770" max="1770" width="11.42578125" style="13"/>
+    <col min="1771" max="1771" width="13.140625" style="13" customWidth="1"/>
+    <col min="1772" max="2022" width="11.42578125" style="13"/>
+    <col min="2023" max="2023" width="13.140625" style="13" customWidth="1"/>
+    <col min="2024" max="2024" width="15.140625" style="13" customWidth="1"/>
     <col min="2025" max="2025" width="42" style="13" customWidth="1"/>
-    <col min="2026" max="2026" width="11.453125" style="13"/>
-    <col min="2027" max="2027" width="13.1796875" style="13" customWidth="1"/>
-    <col min="2028" max="2278" width="11.453125" style="13"/>
-    <col min="2279" max="2279" width="13.1796875" style="13" customWidth="1"/>
-    <col min="2280" max="2280" width="15.1796875" style="13" customWidth="1"/>
+    <col min="2026" max="2026" width="11.42578125" style="13"/>
+    <col min="2027" max="2027" width="13.140625" style="13" customWidth="1"/>
+    <col min="2028" max="2278" width="11.42578125" style="13"/>
+    <col min="2279" max="2279" width="13.140625" style="13" customWidth="1"/>
+    <col min="2280" max="2280" width="15.140625" style="13" customWidth="1"/>
     <col min="2281" max="2281" width="42" style="13" customWidth="1"/>
-    <col min="2282" max="2282" width="11.453125" style="13"/>
-    <col min="2283" max="2283" width="13.1796875" style="13" customWidth="1"/>
-    <col min="2284" max="2534" width="11.453125" style="13"/>
-    <col min="2535" max="2535" width="13.1796875" style="13" customWidth="1"/>
-    <col min="2536" max="2536" width="15.1796875" style="13" customWidth="1"/>
+    <col min="2282" max="2282" width="11.42578125" style="13"/>
+    <col min="2283" max="2283" width="13.140625" style="13" customWidth="1"/>
+    <col min="2284" max="2534" width="11.42578125" style="13"/>
+    <col min="2535" max="2535" width="13.140625" style="13" customWidth="1"/>
+    <col min="2536" max="2536" width="15.140625" style="13" customWidth="1"/>
     <col min="2537" max="2537" width="42" style="13" customWidth="1"/>
-    <col min="2538" max="2538" width="11.453125" style="13"/>
-    <col min="2539" max="2539" width="13.1796875" style="13" customWidth="1"/>
-    <col min="2540" max="2790" width="11.453125" style="13"/>
-    <col min="2791" max="2791" width="13.1796875" style="13" customWidth="1"/>
-    <col min="2792" max="2792" width="15.1796875" style="13" customWidth="1"/>
+    <col min="2538" max="2538" width="11.42578125" style="13"/>
+    <col min="2539" max="2539" width="13.140625" style="13" customWidth="1"/>
+    <col min="2540" max="2790" width="11.42578125" style="13"/>
+    <col min="2791" max="2791" width="13.140625" style="13" customWidth="1"/>
+    <col min="2792" max="2792" width="15.140625" style="13" customWidth="1"/>
     <col min="2793" max="2793" width="42" style="13" customWidth="1"/>
-    <col min="2794" max="2794" width="11.453125" style="13"/>
-    <col min="2795" max="2795" width="13.1796875" style="13" customWidth="1"/>
-    <col min="2796" max="3046" width="11.453125" style="13"/>
-    <col min="3047" max="3047" width="13.1796875" style="13" customWidth="1"/>
-    <col min="3048" max="3048" width="15.1796875" style="13" customWidth="1"/>
+    <col min="2794" max="2794" width="11.42578125" style="13"/>
+    <col min="2795" max="2795" width="13.140625" style="13" customWidth="1"/>
+    <col min="2796" max="3046" width="11.42578125" style="13"/>
+    <col min="3047" max="3047" width="13.140625" style="13" customWidth="1"/>
+    <col min="3048" max="3048" width="15.140625" style="13" customWidth="1"/>
     <col min="3049" max="3049" width="42" style="13" customWidth="1"/>
-    <col min="3050" max="3050" width="11.453125" style="13"/>
-    <col min="3051" max="3051" width="13.1796875" style="13" customWidth="1"/>
-    <col min="3052" max="3302" width="11.453125" style="13"/>
-    <col min="3303" max="3303" width="13.1796875" style="13" customWidth="1"/>
-    <col min="3304" max="3304" width="15.1796875" style="13" customWidth="1"/>
+    <col min="3050" max="3050" width="11.42578125" style="13"/>
+    <col min="3051" max="3051" width="13.140625" style="13" customWidth="1"/>
+    <col min="3052" max="3302" width="11.42578125" style="13"/>
+    <col min="3303" max="3303" width="13.140625" style="13" customWidth="1"/>
+    <col min="3304" max="3304" width="15.140625" style="13" customWidth="1"/>
     <col min="3305" max="3305" width="42" style="13" customWidth="1"/>
-    <col min="3306" max="3306" width="11.453125" style="13"/>
-    <col min="3307" max="3307" width="13.1796875" style="13" customWidth="1"/>
-    <col min="3308" max="3558" width="11.453125" style="13"/>
-    <col min="3559" max="3559" width="13.1796875" style="13" customWidth="1"/>
-    <col min="3560" max="3560" width="15.1796875" style="13" customWidth="1"/>
+    <col min="3306" max="3306" width="11.42578125" style="13"/>
+    <col min="3307" max="3307" width="13.140625" style="13" customWidth="1"/>
+    <col min="3308" max="3558" width="11.42578125" style="13"/>
+    <col min="3559" max="3559" width="13.140625" style="13" customWidth="1"/>
+    <col min="3560" max="3560" width="15.140625" style="13" customWidth="1"/>
     <col min="3561" max="3561" width="42" style="13" customWidth="1"/>
-    <col min="3562" max="3562" width="11.453125" style="13"/>
-    <col min="3563" max="3563" width="13.1796875" style="13" customWidth="1"/>
-    <col min="3564" max="3814" width="11.453125" style="13"/>
-    <col min="3815" max="3815" width="13.1796875" style="13" customWidth="1"/>
-    <col min="3816" max="3816" width="15.1796875" style="13" customWidth="1"/>
+    <col min="3562" max="3562" width="11.42578125" style="13"/>
+    <col min="3563" max="3563" width="13.140625" style="13" customWidth="1"/>
+    <col min="3564" max="3814" width="11.42578125" style="13"/>
+    <col min="3815" max="3815" width="13.140625" style="13" customWidth="1"/>
+    <col min="3816" max="3816" width="15.140625" style="13" customWidth="1"/>
     <col min="3817" max="3817" width="42" style="13" customWidth="1"/>
-    <col min="3818" max="3818" width="11.453125" style="13"/>
-    <col min="3819" max="3819" width="13.1796875" style="13" customWidth="1"/>
-    <col min="3820" max="4070" width="11.453125" style="13"/>
-    <col min="4071" max="4071" width="13.1796875" style="13" customWidth="1"/>
-    <col min="4072" max="4072" width="15.1796875" style="13" customWidth="1"/>
+    <col min="3818" max="3818" width="11.42578125" style="13"/>
+    <col min="3819" max="3819" width="13.140625" style="13" customWidth="1"/>
+    <col min="3820" max="4070" width="11.42578125" style="13"/>
+    <col min="4071" max="4071" width="13.140625" style="13" customWidth="1"/>
+    <col min="4072" max="4072" width="15.140625" style="13" customWidth="1"/>
     <col min="4073" max="4073" width="42" style="13" customWidth="1"/>
-    <col min="4074" max="4074" width="11.453125" style="13"/>
-    <col min="4075" max="4075" width="13.1796875" style="13" customWidth="1"/>
-    <col min="4076" max="4326" width="11.453125" style="13"/>
-    <col min="4327" max="4327" width="13.1796875" style="13" customWidth="1"/>
-    <col min="4328" max="4328" width="15.1796875" style="13" customWidth="1"/>
+    <col min="4074" max="4074" width="11.42578125" style="13"/>
+    <col min="4075" max="4075" width="13.140625" style="13" customWidth="1"/>
+    <col min="4076" max="4326" width="11.42578125" style="13"/>
+    <col min="4327" max="4327" width="13.140625" style="13" customWidth="1"/>
+    <col min="4328" max="4328" width="15.140625" style="13" customWidth="1"/>
     <col min="4329" max="4329" width="42" style="13" customWidth="1"/>
-    <col min="4330" max="4330" width="11.453125" style="13"/>
-    <col min="4331" max="4331" width="13.1796875" style="13" customWidth="1"/>
-    <col min="4332" max="4582" width="11.453125" style="13"/>
-    <col min="4583" max="4583" width="13.1796875" style="13" customWidth="1"/>
-    <col min="4584" max="4584" width="15.1796875" style="13" customWidth="1"/>
+    <col min="4330" max="4330" width="11.42578125" style="13"/>
+    <col min="4331" max="4331" width="13.140625" style="13" customWidth="1"/>
+    <col min="4332" max="4582" width="11.42578125" style="13"/>
+    <col min="4583" max="4583" width="13.140625" style="13" customWidth="1"/>
+    <col min="4584" max="4584" width="15.140625" style="13" customWidth="1"/>
     <col min="4585" max="4585" width="42" style="13" customWidth="1"/>
-    <col min="4586" max="4586" width="11.453125" style="13"/>
-    <col min="4587" max="4587" width="13.1796875" style="13" customWidth="1"/>
-    <col min="4588" max="4838" width="11.453125" style="13"/>
-    <col min="4839" max="4839" width="13.1796875" style="13" customWidth="1"/>
-    <col min="4840" max="4840" width="15.1796875" style="13" customWidth="1"/>
+    <col min="4586" max="4586" width="11.42578125" style="13"/>
+    <col min="4587" max="4587" width="13.140625" style="13" customWidth="1"/>
+    <col min="4588" max="4838" width="11.42578125" style="13"/>
+    <col min="4839" max="4839" width="13.140625" style="13" customWidth="1"/>
+    <col min="4840" max="4840" width="15.140625" style="13" customWidth="1"/>
     <col min="4841" max="4841" width="42" style="13" customWidth="1"/>
-    <col min="4842" max="4842" width="11.453125" style="13"/>
-    <col min="4843" max="4843" width="13.1796875" style="13" customWidth="1"/>
-    <col min="4844" max="5094" width="11.453125" style="13"/>
-    <col min="5095" max="5095" width="13.1796875" style="13" customWidth="1"/>
-    <col min="5096" max="5096" width="15.1796875" style="13" customWidth="1"/>
+    <col min="4842" max="4842" width="11.42578125" style="13"/>
+    <col min="4843" max="4843" width="13.140625" style="13" customWidth="1"/>
+    <col min="4844" max="5094" width="11.42578125" style="13"/>
+    <col min="5095" max="5095" width="13.140625" style="13" customWidth="1"/>
+    <col min="5096" max="5096" width="15.140625" style="13" customWidth="1"/>
     <col min="5097" max="5097" width="42" style="13" customWidth="1"/>
-    <col min="5098" max="5098" width="11.453125" style="13"/>
-    <col min="5099" max="5099" width="13.1796875" style="13" customWidth="1"/>
-    <col min="5100" max="5350" width="11.453125" style="13"/>
-    <col min="5351" max="5351" width="13.1796875" style="13" customWidth="1"/>
-    <col min="5352" max="5352" width="15.1796875" style="13" customWidth="1"/>
+    <col min="5098" max="5098" width="11.42578125" style="13"/>
+    <col min="5099" max="5099" width="13.140625" style="13" customWidth="1"/>
+    <col min="5100" max="5350" width="11.42578125" style="13"/>
+    <col min="5351" max="5351" width="13.140625" style="13" customWidth="1"/>
+    <col min="5352" max="5352" width="15.140625" style="13" customWidth="1"/>
     <col min="5353" max="5353" width="42" style="13" customWidth="1"/>
-    <col min="5354" max="5354" width="11.453125" style="13"/>
-    <col min="5355" max="5355" width="13.1796875" style="13" customWidth="1"/>
-    <col min="5356" max="5606" width="11.453125" style="13"/>
-    <col min="5607" max="5607" width="13.1796875" style="13" customWidth="1"/>
-    <col min="5608" max="5608" width="15.1796875" style="13" customWidth="1"/>
+    <col min="5354" max="5354" width="11.42578125" style="13"/>
+    <col min="5355" max="5355" width="13.140625" style="13" customWidth="1"/>
+    <col min="5356" max="5606" width="11.42578125" style="13"/>
+    <col min="5607" max="5607" width="13.140625" style="13" customWidth="1"/>
+    <col min="5608" max="5608" width="15.140625" style="13" customWidth="1"/>
     <col min="5609" max="5609" width="42" style="13" customWidth="1"/>
-    <col min="5610" max="5610" width="11.453125" style="13"/>
-    <col min="5611" max="5611" width="13.1796875" style="13" customWidth="1"/>
-    <col min="5612" max="5862" width="11.453125" style="13"/>
-    <col min="5863" max="5863" width="13.1796875" style="13" customWidth="1"/>
-    <col min="5864" max="5864" width="15.1796875" style="13" customWidth="1"/>
+    <col min="5610" max="5610" width="11.42578125" style="13"/>
+    <col min="5611" max="5611" width="13.140625" style="13" customWidth="1"/>
+    <col min="5612" max="5862" width="11.42578125" style="13"/>
+    <col min="5863" max="5863" width="13.140625" style="13" customWidth="1"/>
+    <col min="5864" max="5864" width="15.140625" style="13" customWidth="1"/>
     <col min="5865" max="5865" width="42" style="13" customWidth="1"/>
-    <col min="5866" max="5866" width="11.453125" style="13"/>
-    <col min="5867" max="5867" width="13.1796875" style="13" customWidth="1"/>
-    <col min="5868" max="6118" width="11.453125" style="13"/>
-    <col min="6119" max="6119" width="13.1796875" style="13" customWidth="1"/>
-    <col min="6120" max="6120" width="15.1796875" style="13" customWidth="1"/>
+    <col min="5866" max="5866" width="11.42578125" style="13"/>
+    <col min="5867" max="5867" width="13.140625" style="13" customWidth="1"/>
+    <col min="5868" max="6118" width="11.42578125" style="13"/>
+    <col min="6119" max="6119" width="13.140625" style="13" customWidth="1"/>
+    <col min="6120" max="6120" width="15.140625" style="13" customWidth="1"/>
     <col min="6121" max="6121" width="42" style="13" customWidth="1"/>
-    <col min="6122" max="6122" width="11.453125" style="13"/>
-    <col min="6123" max="6123" width="13.1796875" style="13" customWidth="1"/>
-    <col min="6124" max="6374" width="11.453125" style="13"/>
-    <col min="6375" max="6375" width="13.1796875" style="13" customWidth="1"/>
-    <col min="6376" max="6376" width="15.1796875" style="13" customWidth="1"/>
+    <col min="6122" max="6122" width="11.42578125" style="13"/>
+    <col min="6123" max="6123" width="13.140625" style="13" customWidth="1"/>
+    <col min="6124" max="6374" width="11.42578125" style="13"/>
+    <col min="6375" max="6375" width="13.140625" style="13" customWidth="1"/>
+    <col min="6376" max="6376" width="15.140625" style="13" customWidth="1"/>
     <col min="6377" max="6377" width="42" style="13" customWidth="1"/>
-    <col min="6378" max="6378" width="11.453125" style="13"/>
-    <col min="6379" max="6379" width="13.1796875" style="13" customWidth="1"/>
-    <col min="6380" max="6630" width="11.453125" style="13"/>
-    <col min="6631" max="6631" width="13.1796875" style="13" customWidth="1"/>
-    <col min="6632" max="6632" width="15.1796875" style="13" customWidth="1"/>
+    <col min="6378" max="6378" width="11.42578125" style="13"/>
+    <col min="6379" max="6379" width="13.140625" style="13" customWidth="1"/>
+    <col min="6380" max="6630" width="11.42578125" style="13"/>
+    <col min="6631" max="6631" width="13.140625" style="13" customWidth="1"/>
+    <col min="6632" max="6632" width="15.140625" style="13" customWidth="1"/>
     <col min="6633" max="6633" width="42" style="13" customWidth="1"/>
-    <col min="6634" max="6634" width="11.453125" style="13"/>
-    <col min="6635" max="6635" width="13.1796875" style="13" customWidth="1"/>
-    <col min="6636" max="6886" width="11.453125" style="13"/>
-    <col min="6887" max="6887" width="13.1796875" style="13" customWidth="1"/>
-    <col min="6888" max="6888" width="15.1796875" style="13" customWidth="1"/>
+    <col min="6634" max="6634" width="11.42578125" style="13"/>
+    <col min="6635" max="6635" width="13.140625" style="13" customWidth="1"/>
+    <col min="6636" max="6886" width="11.42578125" style="13"/>
+    <col min="6887" max="6887" width="13.140625" style="13" customWidth="1"/>
+    <col min="6888" max="6888" width="15.140625" style="13" customWidth="1"/>
     <col min="6889" max="6889" width="42" style="13" customWidth="1"/>
-    <col min="6890" max="6890" width="11.453125" style="13"/>
-    <col min="6891" max="6891" width="13.1796875" style="13" customWidth="1"/>
-    <col min="6892" max="7142" width="11.453125" style="13"/>
-    <col min="7143" max="7143" width="13.1796875" style="13" customWidth="1"/>
-    <col min="7144" max="7144" width="15.1796875" style="13" customWidth="1"/>
+    <col min="6890" max="6890" width="11.42578125" style="13"/>
+    <col min="6891" max="6891" width="13.140625" style="13" customWidth="1"/>
+    <col min="6892" max="7142" width="11.42578125" style="13"/>
+    <col min="7143" max="7143" width="13.140625" style="13" customWidth="1"/>
+    <col min="7144" max="7144" width="15.140625" style="13" customWidth="1"/>
     <col min="7145" max="7145" width="42" style="13" customWidth="1"/>
-    <col min="7146" max="7146" width="11.453125" style="13"/>
-    <col min="7147" max="7147" width="13.1796875" style="13" customWidth="1"/>
-    <col min="7148" max="7398" width="11.453125" style="13"/>
-    <col min="7399" max="7399" width="13.1796875" style="13" customWidth="1"/>
-    <col min="7400" max="7400" width="15.1796875" style="13" customWidth="1"/>
+    <col min="7146" max="7146" width="11.42578125" style="13"/>
+    <col min="7147" max="7147" width="13.140625" style="13" customWidth="1"/>
+    <col min="7148" max="7398" width="11.42578125" style="13"/>
+    <col min="7399" max="7399" width="13.140625" style="13" customWidth="1"/>
+    <col min="7400" max="7400" width="15.140625" style="13" customWidth="1"/>
     <col min="7401" max="7401" width="42" style="13" customWidth="1"/>
-    <col min="7402" max="7402" width="11.453125" style="13"/>
-    <col min="7403" max="7403" width="13.1796875" style="13" customWidth="1"/>
-    <col min="7404" max="7654" width="11.453125" style="13"/>
-    <col min="7655" max="7655" width="13.1796875" style="13" customWidth="1"/>
-    <col min="7656" max="7656" width="15.1796875" style="13" customWidth="1"/>
+    <col min="7402" max="7402" width="11.42578125" style="13"/>
+    <col min="7403" max="7403" width="13.140625" style="13" customWidth="1"/>
+    <col min="7404" max="7654" width="11.42578125" style="13"/>
+    <col min="7655" max="7655" width="13.140625" style="13" customWidth="1"/>
+    <col min="7656" max="7656" width="15.140625" style="13" customWidth="1"/>
     <col min="7657" max="7657" width="42" style="13" customWidth="1"/>
-    <col min="7658" max="7658" width="11.453125" style="13"/>
-    <col min="7659" max="7659" width="13.1796875" style="13" customWidth="1"/>
-    <col min="7660" max="7910" width="11.453125" style="13"/>
-    <col min="7911" max="7911" width="13.1796875" style="13" customWidth="1"/>
-    <col min="7912" max="7912" width="15.1796875" style="13" customWidth="1"/>
+    <col min="7658" max="7658" width="11.42578125" style="13"/>
+    <col min="7659" max="7659" width="13.140625" style="13" customWidth="1"/>
+    <col min="7660" max="7910" width="11.42578125" style="13"/>
+    <col min="7911" max="7911" width="13.140625" style="13" customWidth="1"/>
+    <col min="7912" max="7912" width="15.140625" style="13" customWidth="1"/>
     <col min="7913" max="7913" width="42" style="13" customWidth="1"/>
-    <col min="7914" max="7914" width="11.453125" style="13"/>
-    <col min="7915" max="7915" width="13.1796875" style="13" customWidth="1"/>
-    <col min="7916" max="8166" width="11.453125" style="13"/>
-    <col min="8167" max="8167" width="13.1796875" style="13" customWidth="1"/>
-    <col min="8168" max="8168" width="15.1796875" style="13" customWidth="1"/>
+    <col min="7914" max="7914" width="11.42578125" style="13"/>
+    <col min="7915" max="7915" width="13.140625" style="13" customWidth="1"/>
+    <col min="7916" max="8166" width="11.42578125" style="13"/>
+    <col min="8167" max="8167" width="13.140625" style="13" customWidth="1"/>
+    <col min="8168" max="8168" width="15.140625" style="13" customWidth="1"/>
     <col min="8169" max="8169" width="42" style="13" customWidth="1"/>
-    <col min="8170" max="8170" width="11.453125" style="13"/>
-    <col min="8171" max="8171" width="13.1796875" style="13" customWidth="1"/>
-    <col min="8172" max="8422" width="11.453125" style="13"/>
-    <col min="8423" max="8423" width="13.1796875" style="13" customWidth="1"/>
-    <col min="8424" max="8424" width="15.1796875" style="13" customWidth="1"/>
+    <col min="8170" max="8170" width="11.42578125" style="13"/>
+    <col min="8171" max="8171" width="13.140625" style="13" customWidth="1"/>
+    <col min="8172" max="8422" width="11.42578125" style="13"/>
+    <col min="8423" max="8423" width="13.140625" style="13" customWidth="1"/>
+    <col min="8424" max="8424" width="15.140625" style="13" customWidth="1"/>
     <col min="8425" max="8425" width="42" style="13" customWidth="1"/>
-    <col min="8426" max="8426" width="11.453125" style="13"/>
-    <col min="8427" max="8427" width="13.1796875" style="13" customWidth="1"/>
-    <col min="8428" max="8678" width="11.453125" style="13"/>
-    <col min="8679" max="8679" width="13.1796875" style="13" customWidth="1"/>
-    <col min="8680" max="8680" width="15.1796875" style="13" customWidth="1"/>
+    <col min="8426" max="8426" width="11.42578125" style="13"/>
+    <col min="8427" max="8427" width="13.140625" style="13" customWidth="1"/>
+    <col min="8428" max="8678" width="11.42578125" style="13"/>
+    <col min="8679" max="8679" width="13.140625" style="13" customWidth="1"/>
+    <col min="8680" max="8680" width="15.140625" style="13" customWidth="1"/>
     <col min="8681" max="8681" width="42" style="13" customWidth="1"/>
-    <col min="8682" max="8682" width="11.453125" style="13"/>
-    <col min="8683" max="8683" width="13.1796875" style="13" customWidth="1"/>
-    <col min="8684" max="8934" width="11.453125" style="13"/>
-    <col min="8935" max="8935" width="13.1796875" style="13" customWidth="1"/>
-    <col min="8936" max="8936" width="15.1796875" style="13" customWidth="1"/>
+    <col min="8682" max="8682" width="11.42578125" style="13"/>
+    <col min="8683" max="8683" width="13.140625" style="13" customWidth="1"/>
+    <col min="8684" max="8934" width="11.42578125" style="13"/>
+    <col min="8935" max="8935" width="13.140625" style="13" customWidth="1"/>
+    <col min="8936" max="8936" width="15.140625" style="13" customWidth="1"/>
     <col min="8937" max="8937" width="42" style="13" customWidth="1"/>
-    <col min="8938" max="8938" width="11.453125" style="13"/>
-    <col min="8939" max="8939" width="13.1796875" style="13" customWidth="1"/>
-    <col min="8940" max="9190" width="11.453125" style="13"/>
-    <col min="9191" max="9191" width="13.1796875" style="13" customWidth="1"/>
-    <col min="9192" max="9192" width="15.1796875" style="13" customWidth="1"/>
+    <col min="8938" max="8938" width="11.42578125" style="13"/>
+    <col min="8939" max="8939" width="13.140625" style="13" customWidth="1"/>
+    <col min="8940" max="9190" width="11.42578125" style="13"/>
+    <col min="9191" max="9191" width="13.140625" style="13" customWidth="1"/>
+    <col min="9192" max="9192" width="15.140625" style="13" customWidth="1"/>
     <col min="9193" max="9193" width="42" style="13" customWidth="1"/>
-    <col min="9194" max="9194" width="11.453125" style="13"/>
-    <col min="9195" max="9195" width="13.1796875" style="13" customWidth="1"/>
-    <col min="9196" max="9446" width="11.453125" style="13"/>
-    <col min="9447" max="9447" width="13.1796875" style="13" customWidth="1"/>
-    <col min="9448" max="9448" width="15.1796875" style="13" customWidth="1"/>
+    <col min="9194" max="9194" width="11.42578125" style="13"/>
+    <col min="9195" max="9195" width="13.140625" style="13" customWidth="1"/>
+    <col min="9196" max="9446" width="11.42578125" style="13"/>
+    <col min="9447" max="9447" width="13.140625" style="13" customWidth="1"/>
+    <col min="9448" max="9448" width="15.140625" style="13" customWidth="1"/>
     <col min="9449" max="9449" width="42" style="13" customWidth="1"/>
-    <col min="9450" max="9450" width="11.453125" style="13"/>
-    <col min="9451" max="9451" width="13.1796875" style="13" customWidth="1"/>
-    <col min="9452" max="9702" width="11.453125" style="13"/>
-    <col min="9703" max="9703" width="13.1796875" style="13" customWidth="1"/>
-    <col min="9704" max="9704" width="15.1796875" style="13" customWidth="1"/>
+    <col min="9450" max="9450" width="11.42578125" style="13"/>
+    <col min="9451" max="9451" width="13.140625" style="13" customWidth="1"/>
+    <col min="9452" max="9702" width="11.42578125" style="13"/>
+    <col min="9703" max="9703" width="13.140625" style="13" customWidth="1"/>
+    <col min="9704" max="9704" width="15.140625" style="13" customWidth="1"/>
     <col min="9705" max="9705" width="42" style="13" customWidth="1"/>
-    <col min="9706" max="9706" width="11.453125" style="13"/>
-    <col min="9707" max="9707" width="13.1796875" style="13" customWidth="1"/>
-    <col min="9708" max="9958" width="11.453125" style="13"/>
-    <col min="9959" max="9959" width="13.1796875" style="13" customWidth="1"/>
-    <col min="9960" max="9960" width="15.1796875" style="13" customWidth="1"/>
+    <col min="9706" max="9706" width="11.42578125" style="13"/>
+    <col min="9707" max="9707" width="13.140625" style="13" customWidth="1"/>
+    <col min="9708" max="9958" width="11.42578125" style="13"/>
+    <col min="9959" max="9959" width="13.140625" style="13" customWidth="1"/>
+    <col min="9960" max="9960" width="15.140625" style="13" customWidth="1"/>
     <col min="9961" max="9961" width="42" style="13" customWidth="1"/>
-    <col min="9962" max="9962" width="11.453125" style="13"/>
-    <col min="9963" max="9963" width="13.1796875" style="13" customWidth="1"/>
-    <col min="9964" max="10214" width="11.453125" style="13"/>
-    <col min="10215" max="10215" width="13.1796875" style="13" customWidth="1"/>
-    <col min="10216" max="10216" width="15.1796875" style="13" customWidth="1"/>
+    <col min="9962" max="9962" width="11.42578125" style="13"/>
+    <col min="9963" max="9963" width="13.140625" style="13" customWidth="1"/>
+    <col min="9964" max="10214" width="11.42578125" style="13"/>
+    <col min="10215" max="10215" width="13.140625" style="13" customWidth="1"/>
+    <col min="10216" max="10216" width="15.140625" style="13" customWidth="1"/>
     <col min="10217" max="10217" width="42" style="13" customWidth="1"/>
-    <col min="10218" max="10218" width="11.453125" style="13"/>
-    <col min="10219" max="10219" width="13.1796875" style="13" customWidth="1"/>
-    <col min="10220" max="10470" width="11.453125" style="13"/>
-    <col min="10471" max="10471" width="13.1796875" style="13" customWidth="1"/>
-    <col min="10472" max="10472" width="15.1796875" style="13" customWidth="1"/>
+    <col min="10218" max="10218" width="11.42578125" style="13"/>
+    <col min="10219" max="10219" width="13.140625" style="13" customWidth="1"/>
+    <col min="10220" max="10470" width="11.42578125" style="13"/>
+    <col min="10471" max="10471" width="13.140625" style="13" customWidth="1"/>
+    <col min="10472" max="10472" width="15.140625" style="13" customWidth="1"/>
     <col min="10473" max="10473" width="42" style="13" customWidth="1"/>
-    <col min="10474" max="10474" width="11.453125" style="13"/>
-    <col min="10475" max="10475" width="13.1796875" style="13" customWidth="1"/>
-    <col min="10476" max="10726" width="11.453125" style="13"/>
-    <col min="10727" max="10727" width="13.1796875" style="13" customWidth="1"/>
-    <col min="10728" max="10728" width="15.1796875" style="13" customWidth="1"/>
+    <col min="10474" max="10474" width="11.42578125" style="13"/>
+    <col min="10475" max="10475" width="13.140625" style="13" customWidth="1"/>
+    <col min="10476" max="10726" width="11.42578125" style="13"/>
+    <col min="10727" max="10727" width="13.140625" style="13" customWidth="1"/>
+    <col min="10728" max="10728" width="15.140625" style="13" customWidth="1"/>
     <col min="10729" max="10729" width="42" style="13" customWidth="1"/>
-    <col min="10730" max="10730" width="11.453125" style="13"/>
-    <col min="10731" max="10731" width="13.1796875" style="13" customWidth="1"/>
-    <col min="10732" max="10982" width="11.453125" style="13"/>
-    <col min="10983" max="10983" width="13.1796875" style="13" customWidth="1"/>
-    <col min="10984" max="10984" width="15.1796875" style="13" customWidth="1"/>
+    <col min="10730" max="10730" width="11.42578125" style="13"/>
+    <col min="10731" max="10731" width="13.140625" style="13" customWidth="1"/>
+    <col min="10732" max="10982" width="11.42578125" style="13"/>
+    <col min="10983" max="10983" width="13.140625" style="13" customWidth="1"/>
+    <col min="10984" max="10984" width="15.140625" style="13" customWidth="1"/>
     <col min="10985" max="10985" width="42" style="13" customWidth="1"/>
-    <col min="10986" max="10986" width="11.453125" style="13"/>
-    <col min="10987" max="10987" width="13.1796875" style="13" customWidth="1"/>
-    <col min="10988" max="11238" width="11.453125" style="13"/>
-    <col min="11239" max="11239" width="13.1796875" style="13" customWidth="1"/>
-    <col min="11240" max="11240" width="15.1796875" style="13" customWidth="1"/>
+    <col min="10986" max="10986" width="11.42578125" style="13"/>
+    <col min="10987" max="10987" width="13.140625" style="13" customWidth="1"/>
+    <col min="10988" max="11238" width="11.42578125" style="13"/>
+    <col min="11239" max="11239" width="13.140625" style="13" customWidth="1"/>
+    <col min="11240" max="11240" width="15.140625" style="13" customWidth="1"/>
     <col min="11241" max="11241" width="42" style="13" customWidth="1"/>
-    <col min="11242" max="11242" width="11.453125" style="13"/>
-    <col min="11243" max="11243" width="13.1796875" style="13" customWidth="1"/>
-    <col min="11244" max="11494" width="11.453125" style="13"/>
-    <col min="11495" max="11495" width="13.1796875" style="13" customWidth="1"/>
-    <col min="11496" max="11496" width="15.1796875" style="13" customWidth="1"/>
+    <col min="11242" max="11242" width="11.42578125" style="13"/>
+    <col min="11243" max="11243" width="13.140625" style="13" customWidth="1"/>
+    <col min="11244" max="11494" width="11.42578125" style="13"/>
+    <col min="11495" max="11495" width="13.140625" style="13" customWidth="1"/>
+    <col min="11496" max="11496" width="15.140625" style="13" customWidth="1"/>
     <col min="11497" max="11497" width="42" style="13" customWidth="1"/>
-    <col min="11498" max="11498" width="11.453125" style="13"/>
-    <col min="11499" max="11499" width="13.1796875" style="13" customWidth="1"/>
-    <col min="11500" max="11750" width="11.453125" style="13"/>
-    <col min="11751" max="11751" width="13.1796875" style="13" customWidth="1"/>
-    <col min="11752" max="11752" width="15.1796875" style="13" customWidth="1"/>
+    <col min="11498" max="11498" width="11.42578125" style="13"/>
+    <col min="11499" max="11499" width="13.140625" style="13" customWidth="1"/>
+    <col min="11500" max="11750" width="11.42578125" style="13"/>
+    <col min="11751" max="11751" width="13.140625" style="13" customWidth="1"/>
+    <col min="11752" max="11752" width="15.140625" style="13" customWidth="1"/>
     <col min="11753" max="11753" width="42" style="13" customWidth="1"/>
-    <col min="11754" max="11754" width="11.453125" style="13"/>
-    <col min="11755" max="11755" width="13.1796875" style="13" customWidth="1"/>
-    <col min="11756" max="12006" width="11.453125" style="13"/>
-    <col min="12007" max="12007" width="13.1796875" style="13" customWidth="1"/>
-    <col min="12008" max="12008" width="15.1796875" style="13" customWidth="1"/>
+    <col min="11754" max="11754" width="11.42578125" style="13"/>
+    <col min="11755" max="11755" width="13.140625" style="13" customWidth="1"/>
+    <col min="11756" max="12006" width="11.42578125" style="13"/>
+    <col min="12007" max="12007" width="13.140625" style="13" customWidth="1"/>
+    <col min="12008" max="12008" width="15.140625" style="13" customWidth="1"/>
     <col min="12009" max="12009" width="42" style="13" customWidth="1"/>
-    <col min="12010" max="12010" width="11.453125" style="13"/>
-    <col min="12011" max="12011" width="13.1796875" style="13" customWidth="1"/>
-    <col min="12012" max="12262" width="11.453125" style="13"/>
-    <col min="12263" max="12263" width="13.1796875" style="13" customWidth="1"/>
-    <col min="12264" max="12264" width="15.1796875" style="13" customWidth="1"/>
+    <col min="12010" max="12010" width="11.42578125" style="13"/>
+    <col min="12011" max="12011" width="13.140625" style="13" customWidth="1"/>
+    <col min="12012" max="12262" width="11.42578125" style="13"/>
+    <col min="12263" max="12263" width="13.140625" style="13" customWidth="1"/>
+    <col min="12264" max="12264" width="15.140625" style="13" customWidth="1"/>
     <col min="12265" max="12265" width="42" style="13" customWidth="1"/>
-    <col min="12266" max="12266" width="11.453125" style="13"/>
-    <col min="12267" max="12267" width="13.1796875" style="13" customWidth="1"/>
-    <col min="12268" max="12518" width="11.453125" style="13"/>
-    <col min="12519" max="12519" width="13.1796875" style="13" customWidth="1"/>
-    <col min="12520" max="12520" width="15.1796875" style="13" customWidth="1"/>
+    <col min="12266" max="12266" width="11.42578125" style="13"/>
+    <col min="12267" max="12267" width="13.140625" style="13" customWidth="1"/>
+    <col min="12268" max="12518" width="11.42578125" style="13"/>
+    <col min="12519" max="12519" width="13.140625" style="13" customWidth="1"/>
+    <col min="12520" max="12520" width="15.140625" style="13" customWidth="1"/>
     <col min="12521" max="12521" width="42" style="13" customWidth="1"/>
-    <col min="12522" max="12522" width="11.453125" style="13"/>
-    <col min="12523" max="12523" width="13.1796875" style="13" customWidth="1"/>
-    <col min="12524" max="12774" width="11.453125" style="13"/>
-    <col min="12775" max="12775" width="13.1796875" style="13" customWidth="1"/>
-    <col min="12776" max="12776" width="15.1796875" style="13" customWidth="1"/>
+    <col min="12522" max="12522" width="11.42578125" style="13"/>
+    <col min="12523" max="12523" width="13.140625" style="13" customWidth="1"/>
+    <col min="12524" max="12774" width="11.42578125" style="13"/>
+    <col min="12775" max="12775" width="13.140625" style="13" customWidth="1"/>
+    <col min="12776" max="12776" width="15.140625" style="13" customWidth="1"/>
     <col min="12777" max="12777" width="42" style="13" customWidth="1"/>
-    <col min="12778" max="12778" width="11.453125" style="13"/>
-    <col min="12779" max="12779" width="13.1796875" style="13" customWidth="1"/>
-    <col min="12780" max="13030" width="11.453125" style="13"/>
-    <col min="13031" max="13031" width="13.1796875" style="13" customWidth="1"/>
-    <col min="13032" max="13032" width="15.1796875" style="13" customWidth="1"/>
+    <col min="12778" max="12778" width="11.42578125" style="13"/>
+    <col min="12779" max="12779" width="13.140625" style="13" customWidth="1"/>
+    <col min="12780" max="13030" width="11.42578125" style="13"/>
+    <col min="13031" max="13031" width="13.140625" style="13" customWidth="1"/>
+    <col min="13032" max="13032" width="15.140625" style="13" customWidth="1"/>
     <col min="13033" max="13033" width="42" style="13" customWidth="1"/>
-    <col min="13034" max="13034" width="11.453125" style="13"/>
-    <col min="13035" max="13035" width="13.1796875" style="13" customWidth="1"/>
-    <col min="13036" max="13286" width="11.453125" style="13"/>
-    <col min="13287" max="13287" width="13.1796875" style="13" customWidth="1"/>
-    <col min="13288" max="13288" width="15.1796875" style="13" customWidth="1"/>
+    <col min="13034" max="13034" width="11.42578125" style="13"/>
+    <col min="13035" max="13035" width="13.140625" style="13" customWidth="1"/>
+    <col min="13036" max="13286" width="11.42578125" style="13"/>
+    <col min="13287" max="13287" width="13.140625" style="13" customWidth="1"/>
+    <col min="13288" max="13288" width="15.140625" style="13" customWidth="1"/>
     <col min="13289" max="13289" width="42" style="13" customWidth="1"/>
-    <col min="13290" max="13290" width="11.453125" style="13"/>
-    <col min="13291" max="13291" width="13.1796875" style="13" customWidth="1"/>
-    <col min="13292" max="13542" width="11.453125" style="13"/>
-    <col min="13543" max="13543" width="13.1796875" style="13" customWidth="1"/>
-    <col min="13544" max="13544" width="15.1796875" style="13" customWidth="1"/>
+    <col min="13290" max="13290" width="11.42578125" style="13"/>
+    <col min="13291" max="13291" width="13.140625" style="13" customWidth="1"/>
+    <col min="13292" max="13542" width="11.42578125" style="13"/>
+    <col min="13543" max="13543" width="13.140625" style="13" customWidth="1"/>
+    <col min="13544" max="13544" width="15.140625" style="13" customWidth="1"/>
     <col min="13545" max="13545" width="42" style="13" customWidth="1"/>
-    <col min="13546" max="13546" width="11.453125" style="13"/>
-    <col min="13547" max="13547" width="13.1796875" style="13" customWidth="1"/>
-    <col min="13548" max="13798" width="11.453125" style="13"/>
-    <col min="13799" max="13799" width="13.1796875" style="13" customWidth="1"/>
-    <col min="13800" max="13800" width="15.1796875" style="13" customWidth="1"/>
+    <col min="13546" max="13546" width="11.42578125" style="13"/>
+    <col min="13547" max="13547" width="13.140625" style="13" customWidth="1"/>
+    <col min="13548" max="13798" width="11.42578125" style="13"/>
+    <col min="13799" max="13799" width="13.140625" style="13" customWidth="1"/>
+    <col min="13800" max="13800" width="15.140625" style="13" customWidth="1"/>
     <col min="13801" max="13801" width="42" style="13" customWidth="1"/>
-    <col min="13802" max="13802" width="11.453125" style="13"/>
-    <col min="13803" max="13803" width="13.1796875" style="13" customWidth="1"/>
-    <col min="13804" max="14054" width="11.453125" style="13"/>
-    <col min="14055" max="14055" width="13.1796875" style="13" customWidth="1"/>
-    <col min="14056" max="14056" width="15.1796875" style="13" customWidth="1"/>
+    <col min="13802" max="13802" width="11.42578125" style="13"/>
+    <col min="13803" max="13803" width="13.140625" style="13" customWidth="1"/>
+    <col min="13804" max="14054" width="11.42578125" style="13"/>
+    <col min="14055" max="14055" width="13.140625" style="13" customWidth="1"/>
+    <col min="14056" max="14056" width="15.140625" style="13" customWidth="1"/>
     <col min="14057" max="14057" width="42" style="13" customWidth="1"/>
-    <col min="14058" max="14058" width="11.453125" style="13"/>
-    <col min="14059" max="14059" width="13.1796875" style="13" customWidth="1"/>
-    <col min="14060" max="14310" width="11.453125" style="13"/>
-    <col min="14311" max="14311" width="13.1796875" style="13" customWidth="1"/>
-    <col min="14312" max="14312" width="15.1796875" style="13" customWidth="1"/>
+    <col min="14058" max="14058" width="11.42578125" style="13"/>
+    <col min="14059" max="14059" width="13.140625" style="13" customWidth="1"/>
+    <col min="14060" max="14310" width="11.42578125" style="13"/>
+    <col min="14311" max="14311" width="13.140625" style="13" customWidth="1"/>
+    <col min="14312" max="14312" width="15.140625" style="13" customWidth="1"/>
     <col min="14313" max="14313" width="42" style="13" customWidth="1"/>
-    <col min="14314" max="14314" width="11.453125" style="13"/>
-    <col min="14315" max="14315" width="13.1796875" style="13" customWidth="1"/>
-    <col min="14316" max="14566" width="11.453125" style="13"/>
-    <col min="14567" max="14567" width="13.1796875" style="13" customWidth="1"/>
-    <col min="14568" max="14568" width="15.1796875" style="13" customWidth="1"/>
+    <col min="14314" max="14314" width="11.42578125" style="13"/>
+    <col min="14315" max="14315" width="13.140625" style="13" customWidth="1"/>
+    <col min="14316" max="14566" width="11.42578125" style="13"/>
+    <col min="14567" max="14567" width="13.140625" style="13" customWidth="1"/>
+    <col min="14568" max="14568" width="15.140625" style="13" customWidth="1"/>
     <col min="14569" max="14569" width="42" style="13" customWidth="1"/>
-    <col min="14570" max="14570" width="11.453125" style="13"/>
-    <col min="14571" max="14571" width="13.1796875" style="13" customWidth="1"/>
-    <col min="14572" max="14822" width="11.453125" style="13"/>
-    <col min="14823" max="14823" width="13.1796875" style="13" customWidth="1"/>
-    <col min="14824" max="14824" width="15.1796875" style="13" customWidth="1"/>
+    <col min="14570" max="14570" width="11.42578125" style="13"/>
+    <col min="14571" max="14571" width="13.140625" style="13" customWidth="1"/>
+    <col min="14572" max="14822" width="11.42578125" style="13"/>
+    <col min="14823" max="14823" width="13.140625" style="13" customWidth="1"/>
+    <col min="14824" max="14824" width="15.140625" style="13" customWidth="1"/>
     <col min="14825" max="14825" width="42" style="13" customWidth="1"/>
-    <col min="14826" max="14826" width="11.453125" style="13"/>
-    <col min="14827" max="14827" width="13.1796875" style="13" customWidth="1"/>
-    <col min="14828" max="15078" width="11.453125" style="13"/>
-    <col min="15079" max="15079" width="13.1796875" style="13" customWidth="1"/>
-    <col min="15080" max="15080" width="15.1796875" style="13" customWidth="1"/>
+    <col min="14826" max="14826" width="11.42578125" style="13"/>
+    <col min="14827" max="14827" width="13.140625" style="13" customWidth="1"/>
+    <col min="14828" max="15078" width="11.42578125" style="13"/>
+    <col min="15079" max="15079" width="13.140625" style="13" customWidth="1"/>
+    <col min="15080" max="15080" width="15.140625" style="13" customWidth="1"/>
     <col min="15081" max="15081" width="42" style="13" customWidth="1"/>
-    <col min="15082" max="15082" width="11.453125" style="13"/>
-    <col min="15083" max="15083" width="13.1796875" style="13" customWidth="1"/>
-    <col min="15084" max="15334" width="11.453125" style="13"/>
-    <col min="15335" max="15335" width="13.1796875" style="13" customWidth="1"/>
-    <col min="15336" max="15336" width="15.1796875" style="13" customWidth="1"/>
+    <col min="15082" max="15082" width="11.42578125" style="13"/>
+    <col min="15083" max="15083" width="13.140625" style="13" customWidth="1"/>
+    <col min="15084" max="15334" width="11.42578125" style="13"/>
+    <col min="15335" max="15335" width="13.140625" style="13" customWidth="1"/>
+    <col min="15336" max="15336" width="15.140625" style="13" customWidth="1"/>
     <col min="15337" max="15337" width="42" style="13" customWidth="1"/>
-    <col min="15338" max="15338" width="11.453125" style="13"/>
-    <col min="15339" max="15339" width="13.1796875" style="13" customWidth="1"/>
-    <col min="15340" max="15590" width="11.453125" style="13"/>
-    <col min="15591" max="15591" width="13.1796875" style="13" customWidth="1"/>
-    <col min="15592" max="15592" width="15.1796875" style="13" customWidth="1"/>
+    <col min="15338" max="15338" width="11.42578125" style="13"/>
+    <col min="15339" max="15339" width="13.140625" style="13" customWidth="1"/>
+    <col min="15340" max="15590" width="11.42578125" style="13"/>
+    <col min="15591" max="15591" width="13.140625" style="13" customWidth="1"/>
+    <col min="15592" max="15592" width="15.140625" style="13" customWidth="1"/>
     <col min="15593" max="15593" width="42" style="13" customWidth="1"/>
-    <col min="15594" max="15594" width="11.453125" style="13"/>
-    <col min="15595" max="15595" width="13.1796875" style="13" customWidth="1"/>
-    <col min="15596" max="15846" width="11.453125" style="13"/>
-    <col min="15847" max="15847" width="13.1796875" style="13" customWidth="1"/>
-    <col min="15848" max="15848" width="15.1796875" style="13" customWidth="1"/>
+    <col min="15594" max="15594" width="11.42578125" style="13"/>
+    <col min="15595" max="15595" width="13.140625" style="13" customWidth="1"/>
+    <col min="15596" max="15846" width="11.42578125" style="13"/>
+    <col min="15847" max="15847" width="13.140625" style="13" customWidth="1"/>
+    <col min="15848" max="15848" width="15.140625" style="13" customWidth="1"/>
     <col min="15849" max="15849" width="42" style="13" customWidth="1"/>
-    <col min="15850" max="15850" width="11.453125" style="13"/>
-    <col min="15851" max="15851" width="13.1796875" style="13" customWidth="1"/>
-    <col min="15852" max="16102" width="11.453125" style="13"/>
-    <col min="16103" max="16103" width="13.1796875" style="13" customWidth="1"/>
-    <col min="16104" max="16104" width="15.1796875" style="13" customWidth="1"/>
+    <col min="15850" max="15850" width="11.42578125" style="13"/>
+    <col min="15851" max="15851" width="13.140625" style="13" customWidth="1"/>
+    <col min="15852" max="16102" width="11.42578125" style="13"/>
+    <col min="16103" max="16103" width="13.140625" style="13" customWidth="1"/>
+    <col min="16104" max="16104" width="15.140625" style="13" customWidth="1"/>
     <col min="16105" max="16105" width="42" style="13" customWidth="1"/>
-    <col min="16106" max="16106" width="11.453125" style="13"/>
-    <col min="16107" max="16107" width="13.1796875" style="13" customWidth="1"/>
-    <col min="16108" max="16384" width="11.453125" style="13"/>
+    <col min="16106" max="16106" width="11.42578125" style="13"/>
+    <col min="16107" max="16107" width="13.140625" style="13" customWidth="1"/>
+    <col min="16108" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="99"/>
       <c r="B1" s="51"/>
       <c r="C1" s="52"/>
@@ -2275,7 +2265,7 @@
       <c r="F1" s="23"/>
       <c r="G1" s="23"/>
     </row>
-    <row r="2" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="15" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="100"/>
       <c r="B2" s="101"/>
       <c r="C2" s="114" t="s">
@@ -2288,7 +2278,7 @@
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
     </row>
-    <row r="3" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="115"/>
@@ -2299,7 +2289,7 @@
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
     </row>
-    <row r="4" spans="1:7" s="15" customFormat="1" ht="20.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" s="15" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="118" t="s">
@@ -2312,7 +2302,7 @@
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
     </row>
-    <row r="5" spans="1:7" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="106"/>
       <c r="B5" s="107"/>
       <c r="C5" s="119"/>
@@ -2323,7 +2313,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2332,7 +2322,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
         <v>21</v>
       </c>
@@ -2345,7 +2335,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -2354,7 +2344,7 @@
       <c r="F8" s="36"/>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
         <v>23</v>
       </c>
@@ -2367,7 +2357,7 @@
       <c r="F9" s="41"/>
       <c r="G9" s="41"/>
     </row>
-    <row r="10" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
@@ -2376,7 +2366,7 @@
       <c r="F10" s="36"/>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="124" t="s">
         <v>122</v>
       </c>
@@ -2391,7 +2381,7 @@
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
     </row>
-    <row r="12" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="56"/>
       <c r="B12" s="56"/>
       <c r="C12" s="56"/>
@@ -2400,7 +2390,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
         <v>25</v>
       </c>
@@ -2415,7 +2405,7 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
     </row>
-    <row r="14" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
       <c r="B14" s="56"/>
       <c r="C14" s="56"/>
@@ -2424,7 +2414,7 @@
       <c r="F14" s="36"/>
       <c r="G14" s="44"/>
     </row>
-    <row r="15" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
         <v>27</v>
       </c>
@@ -2437,7 +2427,7 @@
       <c r="F15" s="45"/>
       <c r="G15" s="42"/>
     </row>
-    <row r="16" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
@@ -2446,7 +2436,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="44"/>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
         <v>29</v>
       </c>
@@ -2457,7 +2447,7 @@
       <c r="F17" s="45"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -2466,7 +2456,7 @@
       <c r="F18" s="36"/>
       <c r="G18" s="44"/>
     </row>
-    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
         <v>30</v>
       </c>
@@ -2479,7 +2469,7 @@
       <c r="F19" s="46"/>
       <c r="G19" s="47"/>
     </row>
-    <row r="20" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="110"/>
       <c r="C20" s="62"/>
@@ -2488,7 +2478,7 @@
       <c r="F20" s="46"/>
       <c r="G20" s="47"/>
     </row>
-    <row r="21" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53" t="s">
         <v>125</v>
       </c>
@@ -2499,7 +2489,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="47"/>
     </row>
-    <row r="22" spans="1:9" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="79"/>
       <c r="B22" s="3"/>
       <c r="C22" s="15"/>
@@ -2508,7 +2498,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="85" t="s">
         <v>38</v>
       </c>
@@ -2553,12 +2543,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="86" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C25" s="67" t="s">
         <v>86</v>
@@ -2578,7 +2568,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="85" t="s">
         <v>40</v>
       </c>
@@ -2600,7 +2590,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="86" t="s">
         <v>41</v>
       </c>
@@ -2622,7 +2612,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="86" t="s">
         <v>153</v>
       </c>
@@ -2636,7 +2626,7 @@
       <c r="F28" s="27"/>
       <c r="G28" s="27"/>
     </row>
-    <row r="29" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85" t="s">
         <v>42</v>
       </c>
@@ -2658,12 +2648,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="86" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C30" s="67" t="s">
         <v>90</v>
@@ -2680,7 +2670,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="85" t="s">
         <v>44</v>
       </c>
@@ -2702,7 +2692,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="86" t="s">
         <v>46</v>
       </c>
@@ -2724,7 +2714,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="86" t="s">
         <v>153</v>
       </c>
@@ -2738,7 +2728,7 @@
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
     </row>
-    <row r="34" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="85" t="s">
         <v>48</v>
       </c>
@@ -2760,7 +2750,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="86" t="s">
         <v>49</v>
       </c>
@@ -2782,7 +2772,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="85" t="s">
         <v>47</v>
       </c>
@@ -2804,7 +2794,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="86" t="s">
         <v>93</v>
       </c>
@@ -2826,7 +2816,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="86" t="s">
         <v>153</v>
       </c>
@@ -2840,7 +2830,7 @@
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="87" t="s">
         <v>60</v>
       </c>
@@ -2862,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="87" t="s">
         <v>59</v>
       </c>
@@ -2884,7 +2874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="89" t="s">
         <v>153</v>
       </c>
@@ -2898,7 +2888,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="91" t="s">
         <v>50</v>
       </c>
@@ -2920,7 +2910,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="91" t="s">
         <v>51</v>
       </c>
@@ -2942,7 +2932,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="87" t="s">
         <v>153</v>
       </c>
@@ -2956,15 +2946,15 @@
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
     </row>
-    <row r="45" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="87" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="88">
         <v>221254856</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D45" s="68">
         <v>1</v>
@@ -2973,7 +2963,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
     </row>
-    <row r="46" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="87"/>
       <c r="B46" s="88"/>
       <c r="C46" s="70"/>
@@ -2982,7 +2972,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="92" t="s">
         <v>162</v>
       </c>
@@ -3004,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="28" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="92" t="s">
         <v>163</v>
       </c>
@@ -3026,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="92" t="s">
         <v>164</v>
       </c>
@@ -3051,7 +3041,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="28" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="92" t="s">
         <v>165</v>
       </c>
@@ -3073,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="92" t="s">
         <v>165</v>
       </c>
@@ -3095,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" s="28" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="92" t="s">
         <v>166</v>
       </c>
@@ -3117,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" s="28" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="92" t="s">
         <v>167</v>
       </c>
@@ -3139,7 +3129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="92" t="s">
         <v>168</v>
       </c>
@@ -3161,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="92" t="s">
         <v>169</v>
       </c>
@@ -3183,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="92" t="s">
         <v>170</v>
       </c>
@@ -3205,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="92" t="s">
         <v>171</v>
       </c>
@@ -3227,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="93" t="s">
         <v>153</v>
       </c>
@@ -3241,7 +3231,7 @@
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
     </row>
-    <row r="59" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="92" t="s">
         <v>172</v>
       </c>
@@ -3263,12 +3253,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="92" t="s">
         <v>173</v>
       </c>
       <c r="B60" s="88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C60" s="73" t="s">
         <v>107</v>
@@ -3288,12 +3278,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="92" t="s">
         <v>174</v>
       </c>
       <c r="B61" s="88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C61" s="73" t="s">
         <v>108</v>
@@ -3310,12 +3300,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="94" t="s">
         <v>175</v>
       </c>
       <c r="B62" s="94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C62" s="77" t="s">
         <v>109</v>
@@ -3335,12 +3325,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="92" t="s">
         <v>176</v>
       </c>
       <c r="B63" s="88" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" s="73" t="s">
         <v>110</v>
@@ -3360,7 +3350,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="92" t="s">
         <v>177</v>
       </c>
@@ -3385,7 +3375,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="92" t="s">
         <v>178</v>
       </c>
@@ -3407,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="92" t="s">
         <v>179</v>
       </c>
@@ -3429,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="92" t="s">
         <v>180</v>
       </c>
@@ -3451,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="92" t="s">
         <v>181</v>
       </c>
@@ -3473,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="92" t="s">
         <v>153</v>
       </c>
@@ -3487,7 +3477,7 @@
       <c r="F69" s="32"/>
       <c r="G69" s="27"/>
     </row>
-    <row r="70" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="92" t="s">
         <v>55</v>
       </c>
@@ -3509,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="92" t="s">
         <v>144</v>
       </c>
@@ -3531,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="92" t="s">
         <v>145</v>
       </c>
@@ -3553,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="92" t="s">
         <v>146</v>
       </c>
@@ -3575,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="92" t="s">
         <v>153</v>
       </c>
@@ -3589,7 +3579,7 @@
       <c r="F74" s="32"/>
       <c r="G74" s="27"/>
     </row>
-    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="79"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3603,7 +3593,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="79"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -3617,7 +3607,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="79"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -3631,7 +3621,7 @@
         <v>7056</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="79"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -3640,7 +3630,7 @@
       <c r="F78" s="36"/>
       <c r="G78" s="29"/>
     </row>
-    <row r="79" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="79"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -3649,7 +3639,7 @@
       <c r="F79" s="37"/>
       <c r="G79" s="29"/>
     </row>
-    <row r="80" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="113" t="s">
         <v>81</v>
       </c>
@@ -3659,7 +3649,7 @@
       <c r="F80" s="37"/>
       <c r="G80" s="29"/>
     </row>
-    <row r="81" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +3661,7 @@
       <c r="F81" s="37"/>
       <c r="G81" s="29"/>
     </row>
-    <row r="82" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="22" t="s">
         <v>62</v>
@@ -3681,7 +3671,7 @@
       <c r="F82" s="37"/>
       <c r="G82" s="29"/>
     </row>
-    <row r="83" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="95">
         <v>2</v>
       </c>
@@ -3693,7 +3683,7 @@
       <c r="F83" s="37"/>
       <c r="G83" s="29"/>
     </row>
-    <row r="84" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="95">
         <v>1</v>
       </c>
@@ -3705,7 +3695,7 @@
       <c r="F84" s="37"/>
       <c r="G84" s="29"/>
     </row>
-    <row r="85" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="95">
         <v>1</v>
       </c>
@@ -3717,7 +3707,7 @@
       <c r="F85" s="37"/>
       <c r="G85" s="29"/>
     </row>
-    <row r="86" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="95">
         <v>1</v>
       </c>
@@ -3729,7 +3719,7 @@
       <c r="F86" s="37"/>
       <c r="G86" s="29"/>
     </row>
-    <row r="87" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="95">
         <v>1</v>
       </c>
@@ -3741,7 +3731,7 @@
       <c r="F87" s="37"/>
       <c r="G87" s="29"/>
     </row>
-    <row r="88" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="96">
         <v>1</v>
       </c>
@@ -3753,7 +3743,7 @@
       <c r="F88" s="37"/>
       <c r="G88" s="29"/>
     </row>
-    <row r="89" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="95">
         <v>1</v>
       </c>
@@ -3765,7 +3755,7 @@
       <c r="F89" s="37"/>
       <c r="G89" s="29"/>
     </row>
-    <row r="90" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="95">
         <v>3</v>
       </c>
@@ -3777,7 +3767,7 @@
       <c r="F90" s="37"/>
       <c r="G90" s="29"/>
     </row>
-    <row r="91" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="95">
         <v>2</v>
       </c>
@@ -3789,7 +3779,7 @@
       <c r="F91" s="36"/>
       <c r="G91" s="29"/>
     </row>
-    <row r="92" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="96">
         <v>1</v>
       </c>
@@ -3801,7 +3791,7 @@
       <c r="F92" s="36"/>
       <c r="G92" s="29"/>
     </row>
-    <row r="93" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="95">
         <v>2</v>
       </c>
@@ -3813,7 +3803,7 @@
       <c r="F93" s="36"/>
       <c r="G93" s="29"/>
     </row>
-    <row r="94" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="95">
         <v>2</v>
       </c>
@@ -3825,7 +3815,7 @@
       <c r="F94" s="36"/>
       <c r="G94" s="29"/>
     </row>
-    <row r="95" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="95">
         <v>2</v>
       </c>
@@ -3837,7 +3827,7 @@
       <c r="F95" s="36"/>
       <c r="G95" s="29"/>
     </row>
-    <row r="96" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="96">
         <v>2</v>
       </c>
@@ -3849,7 +3839,7 @@
       <c r="F96" s="36"/>
       <c r="G96" s="29"/>
     </row>
-    <row r="97" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="96">
         <v>2</v>
       </c>
@@ -3861,7 +3851,7 @@
       <c r="F97" s="37"/>
       <c r="G97" s="29"/>
     </row>
-    <row r="98" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="96">
         <v>1</v>
       </c>
@@ -3873,7 +3863,7 @@
       <c r="F98" s="37"/>
       <c r="G98" s="29"/>
     </row>
-    <row r="99" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="95"/>
       <c r="C99" s="19" t="s">
         <v>70</v>
@@ -3883,7 +3873,7 @@
       <c r="F99" s="37"/>
       <c r="G99" s="29"/>
     </row>
-    <row r="100" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
         <f>SUM(B83:B99)</f>
         <v>25</v>
@@ -3894,7 +3884,7 @@
       <c r="F100" s="37"/>
       <c r="G100" s="29"/>
     </row>
-    <row r="101" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="95"/>
       <c r="C101" s="8"/>
       <c r="D101" s="5"/>
@@ -3902,7 +3892,7 @@
       <c r="F101" s="37"/>
       <c r="G101" s="29"/>
     </row>
-    <row r="102" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="95"/>
       <c r="C102" s="6" t="s">
         <v>71</v>
@@ -3912,7 +3902,7 @@
       <c r="F102" s="37"/>
       <c r="G102" s="29"/>
     </row>
-    <row r="103" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="95">
         <v>1</v>
       </c>
@@ -3924,7 +3914,7 @@
       <c r="F103" s="37"/>
       <c r="G103" s="29"/>
     </row>
-    <row r="104" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="96">
         <v>1</v>
       </c>
@@ -3936,7 +3926,7 @@
       <c r="F104" s="37"/>
       <c r="G104" s="29"/>
     </row>
-    <row r="105" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="96">
         <v>1</v>
       </c>
@@ -3948,7 +3938,7 @@
       <c r="F105" s="37"/>
       <c r="G105" s="29"/>
     </row>
-    <row r="106" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="96">
         <v>1</v>
       </c>
@@ -3960,7 +3950,7 @@
       <c r="F106" s="37"/>
       <c r="G106" s="29"/>
     </row>
-    <row r="107" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="96">
         <v>1</v>
       </c>
@@ -3972,7 +3962,7 @@
       <c r="F107" s="37"/>
       <c r="G107" s="29"/>
     </row>
-    <row r="108" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="96">
         <v>1</v>
       </c>
@@ -3984,7 +3974,7 @@
       <c r="F108" s="37"/>
       <c r="G108" s="29"/>
     </row>
-    <row r="109" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="96">
         <v>1</v>
       </c>
@@ -3996,7 +3986,7 @@
       <c r="F109" s="37"/>
       <c r="G109" s="29"/>
     </row>
-    <row r="110" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="96">
         <v>1</v>
       </c>
@@ -4008,7 +3998,7 @@
       <c r="F110" s="37"/>
       <c r="G110" s="29"/>
     </row>
-    <row r="111" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="96">
         <v>1</v>
       </c>
@@ -4020,7 +4010,7 @@
       <c r="F111" s="37"/>
       <c r="G111" s="29"/>
     </row>
-    <row r="112" spans="2:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="95">
         <v>1</v>
       </c>
@@ -4032,7 +4022,7 @@
       <c r="F112" s="37"/>
       <c r="G112" s="29"/>
     </row>
-    <row r="113" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="96">
         <v>2</v>
       </c>
@@ -4044,7 +4034,7 @@
       <c r="F113" s="37"/>
       <c r="G113" s="29"/>
     </row>
-    <row r="114" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="96">
         <v>1</v>
       </c>
@@ -4056,7 +4046,7 @@
       <c r="F114" s="29"/>
       <c r="G114" s="29"/>
     </row>
-    <row r="115" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="96">
         <v>1</v>
       </c>
@@ -4067,7 +4057,7 @@
       <c r="E115" s="39"/>
       <c r="F115" s="9"/>
     </row>
-    <row r="116" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="95">
         <v>1</v>
       </c>
@@ -4078,18 +4068,18 @@
       <c r="E116" s="39"/>
       <c r="F116" s="9"/>
     </row>
-    <row r="117" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="95">
         <v>1</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="39"/>
       <c r="F117" s="9"/>
     </row>
-    <row r="118" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="22">
         <f>SUM(B103:B117)</f>
         <v>16</v>
@@ -4099,74 +4089,74 @@
       <c r="E118" s="39"/>
       <c r="F118" s="9"/>
     </row>
-    <row r="119" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C119" s="13"/>
       <c r="D119" s="15"/>
       <c r="E119" s="9"/>
       <c r="F119" s="9"/>
     </row>
-    <row r="120" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="97"/>
       <c r="C120" s="98"/>
       <c r="D120" s="15"/>
       <c r="E120" s="9"/>
       <c r="F120" s="9"/>
     </row>
-    <row r="121" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="97"/>
       <c r="C121" s="98"/>
       <c r="D121" s="15"/>
       <c r="E121" s="9"/>
       <c r="F121" s="9"/>
     </row>
-    <row r="122" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="97"/>
       <c r="C122" s="98"/>
       <c r="D122" s="15"/>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
     </row>
-    <row r="123" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="97"/>
       <c r="C123" s="98"/>
       <c r="D123" s="15"/>
       <c r="E123" s="9"/>
       <c r="F123" s="9"/>
     </row>
-    <row r="124" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="97"/>
       <c r="C124" s="98"/>
       <c r="D124" s="15"/>
       <c r="E124" s="9"/>
       <c r="F124" s="9"/>
     </row>
-    <row r="125" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="97"/>
       <c r="C125" s="98"/>
       <c r="D125" s="15"/>
       <c r="E125" s="9"/>
       <c r="F125" s="9"/>
     </row>
-    <row r="126" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="97"/>
       <c r="C126" s="98"/>
       <c r="D126" s="15"/>
       <c r="E126" s="9"/>
       <c r="F126" s="9"/>
     </row>
-    <row r="127" spans="1:7" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="97"/>
       <c r="C127" s="98"/>
       <c r="D127" s="15"/>
       <c r="E127" s="9"/>
       <c r="F127" s="9"/>
     </row>
-    <row r="128" spans="1:7" s="15" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="81"/>
       <c r="B128" s="3"/>
       <c r="D128" s="16"/>
     </row>
-    <row r="129" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="81"/>
       <c r="B129" s="20" t="s">
         <v>76</v>
@@ -4176,7 +4166,7 @@
       </c>
       <c r="D129" s="16"/>
     </row>
-    <row r="130" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="81"/>
       <c r="B130" s="20"/>
       <c r="C130" s="21" t="s">
@@ -4184,7 +4174,7 @@
       </c>
       <c r="D130" s="16"/>
     </row>
-    <row r="131" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="81"/>
       <c r="B131" s="20"/>
       <c r="C131" s="21" t="s">
@@ -4192,7 +4182,7 @@
       </c>
       <c r="D131" s="16"/>
     </row>
-    <row r="132" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="81"/>
       <c r="B132" s="20"/>
       <c r="C132" s="21" t="s">
@@ -4200,19 +4190,19 @@
       </c>
       <c r="D132" s="16"/>
     </row>
-    <row r="133" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="81"/>
       <c r="B133" s="82"/>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
     </row>
-    <row r="134" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="81"/>
       <c r="B134" s="82"/>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
     </row>
-    <row r="135" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="81"/>
       <c r="B135" s="83" t="s">
         <v>123</v>
@@ -4222,7 +4212,7 @@
       </c>
       <c r="D135" s="16"/>
     </row>
-    <row r="136" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="81"/>
       <c r="B136" s="82"/>
       <c r="C136" s="78" t="s">
@@ -4230,7 +4220,7 @@
       </c>
       <c r="D136" s="16"/>
     </row>
-    <row r="137" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="81"/>
       <c r="B137" s="82"/>
       <c r="C137" s="78" t="s">
@@ -4238,125 +4228,125 @@
       </c>
       <c r="D137" s="16"/>
     </row>
-    <row r="138" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="81"/>
       <c r="B138" s="82"/>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
     </row>
-    <row r="139" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="81"/>
       <c r="B139" s="82"/>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
     </row>
-    <row r="140" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="81"/>
       <c r="B140" s="82"/>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
     </row>
-    <row r="141" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="81"/>
       <c r="B141" s="82"/>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
     </row>
-    <row r="142" spans="1:4" s="17" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" s="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="81"/>
       <c r="B142" s="82"/>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
     </row>
-    <row r="143" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="84"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
     </row>
-    <row r="145" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C145" s="48"/>
       <c r="D145" s="15"/>
     </row>
-    <row r="146" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
     </row>
-    <row r="147" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
     </row>
-    <row r="148" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
     </row>
-    <row r="149" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C149" s="48"/>
       <c r="D149" s="15"/>
     </row>
-    <row r="150" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
     </row>
-    <row r="151" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
     </row>
-    <row r="152" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
     </row>
-    <row r="153" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
     </row>
-    <row r="154" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
     </row>
-    <row r="155" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C155" s="48"/>
       <c r="D155" s="15"/>
     </row>
-    <row r="156" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
     </row>
-    <row r="157" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
     </row>
-    <row r="158" spans="2:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="11"/>
       <c r="C158" s="12"/>
       <c r="D158" s="17"/>
     </row>
-    <row r="159" spans="2:4" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:4" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C159" s="48"/>
       <c r="D159" s="17"/>
     </row>
-    <row r="163" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>58</v>
       </c>
